--- a/Deliverables/tabulation locale.xlsx
+++ b/Deliverables/tabulation locale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eins\Documents\GitHub\Thesis-Collab\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB7E1B-652B-4C05-BCA2-065DE176CD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D573A52-EFF6-437A-95CF-A0F5E3023650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{52061C28-1649-4A5F-9EAE-AC34DE550A31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{52061C28-1649-4A5F-9EAE-AC34DE550A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Tally" sheetId="1" r:id="rId1"/>
@@ -542,9 +542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C65EF3-1D9A-443D-B50A-9CA0CE16F8F3}">
   <dimension ref="A1:CX26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD25" sqref="BD25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA3" sqref="AA3:BI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,99 +1046,9 @@
       <c r="Z3">
         <v>4</v>
       </c>
-      <c r="AA3">
-        <v>4</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
-        <v>4</v>
-      </c>
-      <c r="AD3">
-        <v>4</v>
-      </c>
-      <c r="AE3">
-        <v>4</v>
-      </c>
-      <c r="AF3">
-        <v>4</v>
-      </c>
-      <c r="AG3">
-        <v>4</v>
-      </c>
-      <c r="AH3">
-        <v>4</v>
-      </c>
-      <c r="AI3">
-        <v>4</v>
-      </c>
-      <c r="AJ3">
-        <v>4</v>
-      </c>
-      <c r="AK3">
-        <v>4</v>
-      </c>
-      <c r="AL3">
-        <v>4</v>
-      </c>
-      <c r="AM3">
-        <v>4</v>
-      </c>
-      <c r="AN3">
-        <v>4</v>
-      </c>
-      <c r="AO3">
-        <v>4</v>
-      </c>
-      <c r="AP3">
-        <v>4</v>
-      </c>
-      <c r="AQ3">
-        <v>3</v>
-      </c>
-      <c r="AR3">
-        <v>4</v>
-      </c>
-      <c r="AS3">
-        <v>4</v>
-      </c>
-      <c r="AT3">
-        <v>4</v>
-      </c>
-      <c r="AU3">
-        <v>4</v>
-      </c>
-      <c r="AV3">
-        <v>4</v>
-      </c>
-      <c r="AW3">
-        <v>3</v>
-      </c>
-      <c r="AX3">
-        <v>4</v>
-      </c>
-      <c r="AY3">
-        <v>4</v>
-      </c>
-      <c r="AZ3">
-        <v>4</v>
-      </c>
-      <c r="BA3">
-        <v>3</v>
-      </c>
-      <c r="BB3">
-        <v>3</v>
-      </c>
-      <c r="BC3">
-        <v>4</v>
-      </c>
-      <c r="BD3">
-        <v>4</v>
-      </c>
       <c r="CX3" s="10">
         <f>COUNT(B3:CW3)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.25">
@@ -1220,99 +1130,9 @@
       <c r="Z4">
         <v>4</v>
       </c>
-      <c r="AA4">
-        <v>4</v>
-      </c>
-      <c r="AB4">
-        <v>3</v>
-      </c>
-      <c r="AC4">
-        <v>4</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>4</v>
-      </c>
-      <c r="AF4">
-        <v>3</v>
-      </c>
-      <c r="AG4">
-        <v>4</v>
-      </c>
-      <c r="AH4">
-        <v>4</v>
-      </c>
-      <c r="AI4">
-        <v>4</v>
-      </c>
-      <c r="AJ4">
-        <v>4</v>
-      </c>
-      <c r="AK4">
-        <v>4</v>
-      </c>
-      <c r="AL4">
-        <v>3</v>
-      </c>
-      <c r="AM4">
-        <v>4</v>
-      </c>
-      <c r="AN4">
-        <v>4</v>
-      </c>
-      <c r="AO4">
-        <v>4</v>
-      </c>
-      <c r="AP4">
-        <v>4</v>
-      </c>
-      <c r="AQ4">
-        <v>3</v>
-      </c>
-      <c r="AR4">
-        <v>3</v>
-      </c>
-      <c r="AS4">
-        <v>4</v>
-      </c>
-      <c r="AT4">
-        <v>4</v>
-      </c>
-      <c r="AU4">
-        <v>4</v>
-      </c>
-      <c r="AV4">
-        <v>4</v>
-      </c>
-      <c r="AW4">
-        <v>3</v>
-      </c>
-      <c r="AX4">
-        <v>4</v>
-      </c>
-      <c r="AY4">
-        <v>4</v>
-      </c>
-      <c r="AZ4">
-        <v>4</v>
-      </c>
-      <c r="BA4">
-        <v>3</v>
-      </c>
-      <c r="BB4">
-        <v>4</v>
-      </c>
-      <c r="BC4">
-        <v>3</v>
-      </c>
-      <c r="BD4">
-        <v>4</v>
-      </c>
       <c r="CX4" s="10">
         <f t="shared" ref="CX4:CX26" si="0">COUNT(B4:CW4)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.25">
@@ -1394,99 +1214,9 @@
       <c r="Z5">
         <v>4</v>
       </c>
-      <c r="AA5">
-        <v>4</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-      <c r="AC5">
-        <v>4</v>
-      </c>
-      <c r="AD5">
-        <v>3</v>
-      </c>
-      <c r="AE5">
-        <v>4</v>
-      </c>
-      <c r="AF5">
-        <v>4</v>
-      </c>
-      <c r="AG5">
-        <v>4</v>
-      </c>
-      <c r="AH5">
-        <v>4</v>
-      </c>
-      <c r="AI5">
-        <v>4</v>
-      </c>
-      <c r="AJ5">
-        <v>4</v>
-      </c>
-      <c r="AK5">
-        <v>4</v>
-      </c>
-      <c r="AL5">
-        <v>2</v>
-      </c>
-      <c r="AM5">
-        <v>4</v>
-      </c>
-      <c r="AN5">
-        <v>4</v>
-      </c>
-      <c r="AO5">
-        <v>3</v>
-      </c>
-      <c r="AP5">
-        <v>4</v>
-      </c>
-      <c r="AQ5">
-        <v>4</v>
-      </c>
-      <c r="AR5">
-        <v>4</v>
-      </c>
-      <c r="AS5">
-        <v>3</v>
-      </c>
-      <c r="AT5">
-        <v>4</v>
-      </c>
-      <c r="AU5">
-        <v>4</v>
-      </c>
-      <c r="AV5">
-        <v>4</v>
-      </c>
-      <c r="AW5">
-        <v>2</v>
-      </c>
-      <c r="AX5">
-        <v>4</v>
-      </c>
-      <c r="AY5">
-        <v>4</v>
-      </c>
-      <c r="AZ5">
-        <v>4</v>
-      </c>
-      <c r="BA5">
-        <v>3</v>
-      </c>
-      <c r="BB5">
-        <v>4</v>
-      </c>
-      <c r="BC5">
-        <v>4</v>
-      </c>
-      <c r="BD5">
-        <v>3</v>
-      </c>
       <c r="CX5" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.25">
@@ -1568,99 +1298,9 @@
       <c r="Z6">
         <v>4</v>
       </c>
-      <c r="AA6">
-        <v>4</v>
-      </c>
-      <c r="AB6">
-        <v>3</v>
-      </c>
-      <c r="AC6">
-        <v>3</v>
-      </c>
-      <c r="AD6">
-        <v>4</v>
-      </c>
-      <c r="AE6">
-        <v>4</v>
-      </c>
-      <c r="AF6">
-        <v>3</v>
-      </c>
-      <c r="AG6">
-        <v>4</v>
-      </c>
-      <c r="AH6">
-        <v>4</v>
-      </c>
-      <c r="AI6">
-        <v>4</v>
-      </c>
-      <c r="AJ6">
-        <v>4</v>
-      </c>
-      <c r="AK6">
-        <v>4</v>
-      </c>
-      <c r="AL6">
-        <v>4</v>
-      </c>
-      <c r="AM6">
-        <v>4</v>
-      </c>
-      <c r="AN6">
-        <v>4</v>
-      </c>
-      <c r="AO6">
-        <v>3</v>
-      </c>
-      <c r="AP6">
-        <v>4</v>
-      </c>
-      <c r="AQ6">
-        <v>2</v>
-      </c>
-      <c r="AR6">
-        <v>2</v>
-      </c>
-      <c r="AS6">
-        <v>4</v>
-      </c>
-      <c r="AT6">
-        <v>4</v>
-      </c>
-      <c r="AU6">
-        <v>4</v>
-      </c>
-      <c r="AV6">
-        <v>4</v>
-      </c>
-      <c r="AW6">
-        <v>4</v>
-      </c>
-      <c r="AX6">
-        <v>4</v>
-      </c>
-      <c r="AY6">
-        <v>4</v>
-      </c>
-      <c r="AZ6">
-        <v>4</v>
-      </c>
-      <c r="BA6">
-        <v>3</v>
-      </c>
-      <c r="BB6">
-        <v>3</v>
-      </c>
-      <c r="BC6">
-        <v>4</v>
-      </c>
-      <c r="BD6">
-        <v>4</v>
-      </c>
       <c r="CX6" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
@@ -1848,99 +1488,9 @@
       <c r="Z8">
         <v>4</v>
       </c>
-      <c r="AA8">
-        <v>4</v>
-      </c>
-      <c r="AB8">
-        <v>3</v>
-      </c>
-      <c r="AC8">
-        <v>4</v>
-      </c>
-      <c r="AD8">
-        <v>3</v>
-      </c>
-      <c r="AE8">
-        <v>4</v>
-      </c>
-      <c r="AF8">
-        <v>4</v>
-      </c>
-      <c r="AG8">
-        <v>4</v>
-      </c>
-      <c r="AH8">
-        <v>4</v>
-      </c>
-      <c r="AI8">
-        <v>4</v>
-      </c>
-      <c r="AJ8">
-        <v>3</v>
-      </c>
-      <c r="AK8">
-        <v>4</v>
-      </c>
-      <c r="AL8">
-        <v>4</v>
-      </c>
-      <c r="AM8">
-        <v>4</v>
-      </c>
-      <c r="AN8">
-        <v>3</v>
-      </c>
-      <c r="AO8">
-        <v>4</v>
-      </c>
-      <c r="AP8">
-        <v>4</v>
-      </c>
-      <c r="AQ8">
-        <v>2</v>
-      </c>
-      <c r="AR8">
-        <v>3</v>
-      </c>
-      <c r="AS8">
-        <v>4</v>
-      </c>
-      <c r="AT8">
-        <v>4</v>
-      </c>
-      <c r="AU8">
-        <v>4</v>
-      </c>
-      <c r="AV8">
-        <v>4</v>
-      </c>
-      <c r="AW8">
-        <v>2</v>
-      </c>
-      <c r="AX8">
-        <v>4</v>
-      </c>
-      <c r="AY8">
-        <v>3</v>
-      </c>
-      <c r="AZ8">
-        <v>4</v>
-      </c>
-      <c r="BA8">
-        <v>3</v>
-      </c>
-      <c r="BB8">
-        <v>3</v>
-      </c>
-      <c r="BC8">
-        <v>3</v>
-      </c>
-      <c r="BD8">
-        <v>4</v>
-      </c>
       <c r="CX8" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
@@ -2022,99 +1572,9 @@
       <c r="Z9">
         <v>4</v>
       </c>
-      <c r="AA9">
-        <v>4</v>
-      </c>
-      <c r="AB9">
-        <v>3</v>
-      </c>
-      <c r="AC9">
-        <v>3</v>
-      </c>
-      <c r="AD9">
-        <v>4</v>
-      </c>
-      <c r="AE9">
-        <v>4</v>
-      </c>
-      <c r="AF9">
-        <v>3</v>
-      </c>
-      <c r="AG9">
-        <v>4</v>
-      </c>
-      <c r="AH9">
-        <v>4</v>
-      </c>
-      <c r="AI9">
-        <v>4</v>
-      </c>
-      <c r="AJ9">
-        <v>3</v>
-      </c>
-      <c r="AK9">
-        <v>4</v>
-      </c>
-      <c r="AL9">
-        <v>3</v>
-      </c>
-      <c r="AM9">
-        <v>4</v>
-      </c>
-      <c r="AN9">
-        <v>4</v>
-      </c>
-      <c r="AO9">
-        <v>4</v>
-      </c>
-      <c r="AP9">
-        <v>4</v>
-      </c>
-      <c r="AQ9">
-        <v>3</v>
-      </c>
-      <c r="AR9">
-        <v>3</v>
-      </c>
-      <c r="AS9">
-        <v>4</v>
-      </c>
-      <c r="AT9">
-        <v>4</v>
-      </c>
-      <c r="AU9">
-        <v>4</v>
-      </c>
-      <c r="AV9">
-        <v>4</v>
-      </c>
-      <c r="AW9">
-        <v>3</v>
-      </c>
-      <c r="AX9">
-        <v>4</v>
-      </c>
-      <c r="AY9">
-        <v>3</v>
-      </c>
-      <c r="AZ9">
-        <v>3</v>
-      </c>
-      <c r="BA9">
-        <v>3</v>
-      </c>
-      <c r="BB9">
-        <v>4</v>
-      </c>
-      <c r="BC9">
-        <v>3</v>
-      </c>
-      <c r="BD9">
-        <v>4</v>
-      </c>
       <c r="CX9" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
@@ -2196,99 +1656,9 @@
       <c r="Z10">
         <v>4</v>
       </c>
-      <c r="AA10">
-        <v>4</v>
-      </c>
-      <c r="AB10">
-        <v>3</v>
-      </c>
-      <c r="AC10">
-        <v>4</v>
-      </c>
-      <c r="AD10">
-        <v>4</v>
-      </c>
-      <c r="AE10">
-        <v>4</v>
-      </c>
-      <c r="AF10">
-        <v>4</v>
-      </c>
-      <c r="AG10">
-        <v>4</v>
-      </c>
-      <c r="AH10">
-        <v>4</v>
-      </c>
-      <c r="AI10">
-        <v>4</v>
-      </c>
-      <c r="AJ10">
-        <v>4</v>
-      </c>
-      <c r="AK10">
-        <v>4</v>
-      </c>
-      <c r="AL10">
-        <v>4</v>
-      </c>
-      <c r="AM10">
-        <v>4</v>
-      </c>
-      <c r="AN10">
-        <v>4</v>
-      </c>
-      <c r="AO10">
-        <v>3</v>
-      </c>
-      <c r="AP10">
-        <v>4</v>
-      </c>
-      <c r="AQ10">
-        <v>4</v>
-      </c>
-      <c r="AR10">
-        <v>3</v>
-      </c>
-      <c r="AS10">
-        <v>3</v>
-      </c>
-      <c r="AT10">
-        <v>4</v>
-      </c>
-      <c r="AU10">
-        <v>4</v>
-      </c>
-      <c r="AV10">
-        <v>4</v>
-      </c>
-      <c r="AW10">
-        <v>4</v>
-      </c>
-      <c r="AX10">
-        <v>4</v>
-      </c>
-      <c r="AY10">
-        <v>4</v>
-      </c>
-      <c r="AZ10">
-        <v>4</v>
-      </c>
-      <c r="BA10">
-        <v>3</v>
-      </c>
-      <c r="BB10">
-        <v>3</v>
-      </c>
-      <c r="BC10">
-        <v>3</v>
-      </c>
-      <c r="BD10">
-        <v>4</v>
-      </c>
       <c r="CX10" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
@@ -2479,99 +1849,9 @@
       <c r="Z12">
         <v>4</v>
       </c>
-      <c r="AA12">
-        <v>4</v>
-      </c>
-      <c r="AB12">
-        <v>4</v>
-      </c>
-      <c r="AC12">
-        <v>4</v>
-      </c>
-      <c r="AD12">
-        <v>4</v>
-      </c>
-      <c r="AE12">
-        <v>4</v>
-      </c>
-      <c r="AF12">
-        <v>4</v>
-      </c>
-      <c r="AG12">
-        <v>4</v>
-      </c>
-      <c r="AH12">
-        <v>4</v>
-      </c>
-      <c r="AI12">
-        <v>4</v>
-      </c>
-      <c r="AJ12">
-        <v>4</v>
-      </c>
-      <c r="AK12">
-        <v>4</v>
-      </c>
-      <c r="AL12">
-        <v>4</v>
-      </c>
-      <c r="AM12">
-        <v>4</v>
-      </c>
-      <c r="AN12">
-        <v>4</v>
-      </c>
-      <c r="AO12">
-        <v>4</v>
-      </c>
-      <c r="AP12">
-        <v>4</v>
-      </c>
-      <c r="AQ12">
-        <v>4</v>
-      </c>
-      <c r="AR12">
-        <v>4</v>
-      </c>
-      <c r="AS12">
-        <v>4</v>
-      </c>
-      <c r="AT12">
-        <v>4</v>
-      </c>
-      <c r="AU12">
-        <v>4</v>
-      </c>
-      <c r="AV12">
-        <v>4</v>
-      </c>
-      <c r="AW12">
-        <v>3</v>
-      </c>
-      <c r="AX12">
-        <v>4</v>
-      </c>
-      <c r="AY12">
-        <v>4</v>
-      </c>
-      <c r="AZ12">
-        <v>4</v>
-      </c>
-      <c r="BA12">
-        <v>3</v>
-      </c>
-      <c r="BB12">
-        <v>3</v>
-      </c>
-      <c r="BC12">
-        <v>3</v>
-      </c>
-      <c r="BD12">
-        <v>4</v>
-      </c>
       <c r="CX12" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.25">
@@ -2653,99 +1933,9 @@
       <c r="Z13">
         <v>4</v>
       </c>
-      <c r="AA13">
-        <v>4</v>
-      </c>
-      <c r="AB13">
-        <v>4</v>
-      </c>
-      <c r="AC13">
-        <v>4</v>
-      </c>
-      <c r="AD13">
-        <v>4</v>
-      </c>
-      <c r="AE13">
-        <v>4</v>
-      </c>
-      <c r="AF13">
-        <v>4</v>
-      </c>
-      <c r="AG13">
-        <v>4</v>
-      </c>
-      <c r="AH13">
-        <v>4</v>
-      </c>
-      <c r="AI13">
-        <v>4</v>
-      </c>
-      <c r="AJ13">
-        <v>4</v>
-      </c>
-      <c r="AK13">
-        <v>4</v>
-      </c>
-      <c r="AL13">
-        <v>3</v>
-      </c>
-      <c r="AM13">
-        <v>4</v>
-      </c>
-      <c r="AN13">
-        <v>3</v>
-      </c>
-      <c r="AO13">
-        <v>4</v>
-      </c>
-      <c r="AP13">
-        <v>4</v>
-      </c>
-      <c r="AQ13">
-        <v>3</v>
-      </c>
-      <c r="AR13">
-        <v>3</v>
-      </c>
-      <c r="AS13">
-        <v>3</v>
-      </c>
-      <c r="AT13">
-        <v>4</v>
-      </c>
-      <c r="AU13">
-        <v>4</v>
-      </c>
-      <c r="AV13">
-        <v>4</v>
-      </c>
-      <c r="AW13">
-        <v>3</v>
-      </c>
-      <c r="AX13">
-        <v>4</v>
-      </c>
-      <c r="AY13">
-        <v>4</v>
-      </c>
-      <c r="AZ13">
-        <v>4</v>
-      </c>
-      <c r="BA13">
-        <v>3</v>
-      </c>
-      <c r="BB13">
-        <v>4</v>
-      </c>
-      <c r="BC13">
-        <v>3</v>
-      </c>
-      <c r="BD13">
-        <v>4</v>
-      </c>
       <c r="CX13" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.25">
@@ -2827,99 +2017,9 @@
       <c r="Z14">
         <v>4</v>
       </c>
-      <c r="AA14">
-        <v>4</v>
-      </c>
-      <c r="AB14">
-        <v>4</v>
-      </c>
-      <c r="AC14">
-        <v>4</v>
-      </c>
-      <c r="AD14">
-        <v>4</v>
-      </c>
-      <c r="AE14">
-        <v>4</v>
-      </c>
-      <c r="AF14">
-        <v>4</v>
-      </c>
-      <c r="AG14">
-        <v>4</v>
-      </c>
-      <c r="AH14">
-        <v>4</v>
-      </c>
-      <c r="AI14">
-        <v>4</v>
-      </c>
-      <c r="AJ14">
-        <v>4</v>
-      </c>
-      <c r="AK14">
-        <v>4</v>
-      </c>
-      <c r="AL14">
-        <v>3</v>
-      </c>
-      <c r="AM14">
-        <v>4</v>
-      </c>
-      <c r="AN14">
-        <v>4</v>
-      </c>
-      <c r="AO14">
-        <v>4</v>
-      </c>
-      <c r="AP14">
-        <v>4</v>
-      </c>
-      <c r="AQ14">
-        <v>3</v>
-      </c>
-      <c r="AR14">
-        <v>4</v>
-      </c>
-      <c r="AS14">
-        <v>4</v>
-      </c>
-      <c r="AT14">
-        <v>4</v>
-      </c>
-      <c r="AU14">
-        <v>4</v>
-      </c>
-      <c r="AV14">
-        <v>4</v>
-      </c>
-      <c r="AW14">
-        <v>3</v>
-      </c>
-      <c r="AX14">
-        <v>4</v>
-      </c>
-      <c r="AY14">
-        <v>4</v>
-      </c>
-      <c r="AZ14">
-        <v>4</v>
-      </c>
-      <c r="BA14">
-        <v>3</v>
-      </c>
-      <c r="BB14">
-        <v>4</v>
-      </c>
-      <c r="BC14">
-        <v>4</v>
-      </c>
-      <c r="BD14">
-        <v>4</v>
-      </c>
       <c r="CX14" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.25">
@@ -3107,99 +2207,9 @@
       <c r="Z16">
         <v>4</v>
       </c>
-      <c r="AA16">
-        <v>4</v>
-      </c>
-      <c r="AB16">
-        <v>4</v>
-      </c>
-      <c r="AC16">
-        <v>4</v>
-      </c>
-      <c r="AD16">
-        <v>4</v>
-      </c>
-      <c r="AE16">
-        <v>4</v>
-      </c>
-      <c r="AF16">
-        <v>4</v>
-      </c>
-      <c r="AG16">
-        <v>4</v>
-      </c>
-      <c r="AH16">
-        <v>4</v>
-      </c>
-      <c r="AI16">
-        <v>4</v>
-      </c>
-      <c r="AJ16">
-        <v>4</v>
-      </c>
-      <c r="AK16">
-        <v>4</v>
-      </c>
-      <c r="AL16">
-        <v>4</v>
-      </c>
-      <c r="AM16">
-        <v>4</v>
-      </c>
-      <c r="AN16">
-        <v>4</v>
-      </c>
-      <c r="AO16">
-        <v>3</v>
-      </c>
-      <c r="AP16">
-        <v>4</v>
-      </c>
-      <c r="AQ16">
-        <v>4</v>
-      </c>
-      <c r="AR16">
-        <v>3</v>
-      </c>
-      <c r="AS16">
-        <v>4</v>
-      </c>
-      <c r="AT16">
-        <v>4</v>
-      </c>
-      <c r="AU16">
-        <v>4</v>
-      </c>
-      <c r="AV16">
-        <v>4</v>
-      </c>
-      <c r="AW16">
-        <v>3</v>
-      </c>
-      <c r="AX16">
-        <v>4</v>
-      </c>
-      <c r="AY16">
-        <v>4</v>
-      </c>
-      <c r="AZ16">
-        <v>4</v>
-      </c>
-      <c r="BA16">
-        <v>3</v>
-      </c>
-      <c r="BB16">
-        <v>4</v>
-      </c>
-      <c r="BC16">
-        <v>3</v>
-      </c>
-      <c r="BD16">
-        <v>3</v>
-      </c>
       <c r="CX16" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:102" x14ac:dyDescent="0.25">
@@ -3281,99 +2291,9 @@
       <c r="Z17">
         <v>4</v>
       </c>
-      <c r="AA17">
-        <v>4</v>
-      </c>
-      <c r="AB17">
-        <v>4</v>
-      </c>
-      <c r="AC17">
-        <v>3</v>
-      </c>
-      <c r="AD17">
-        <v>4</v>
-      </c>
-      <c r="AE17">
-        <v>4</v>
-      </c>
-      <c r="AF17">
-        <v>4</v>
-      </c>
-      <c r="AG17">
-        <v>4</v>
-      </c>
-      <c r="AH17">
-        <v>4</v>
-      </c>
-      <c r="AI17">
-        <v>4</v>
-      </c>
-      <c r="AJ17">
-        <v>4</v>
-      </c>
-      <c r="AK17">
-        <v>4</v>
-      </c>
-      <c r="AL17">
-        <v>3</v>
-      </c>
-      <c r="AM17">
-        <v>4</v>
-      </c>
-      <c r="AN17">
-        <v>4</v>
-      </c>
-      <c r="AO17">
-        <v>4</v>
-      </c>
-      <c r="AP17">
-        <v>4</v>
-      </c>
-      <c r="AQ17">
-        <v>4</v>
-      </c>
-      <c r="AR17">
-        <v>4</v>
-      </c>
-      <c r="AS17">
-        <v>3</v>
-      </c>
-      <c r="AT17">
-        <v>4</v>
-      </c>
-      <c r="AU17">
-        <v>4</v>
-      </c>
-      <c r="AV17">
-        <v>4</v>
-      </c>
-      <c r="AW17">
-        <v>3</v>
-      </c>
-      <c r="AX17">
-        <v>4</v>
-      </c>
-      <c r="AY17">
-        <v>3</v>
-      </c>
-      <c r="AZ17">
-        <v>4</v>
-      </c>
-      <c r="BA17">
-        <v>3</v>
-      </c>
-      <c r="BB17">
-        <v>3</v>
-      </c>
-      <c r="BC17">
-        <v>4</v>
-      </c>
-      <c r="BD17">
-        <v>4</v>
-      </c>
       <c r="CX17" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:102" x14ac:dyDescent="0.25">
@@ -3561,99 +2481,9 @@
       <c r="Z19">
         <v>4</v>
       </c>
-      <c r="AA19">
-        <v>4</v>
-      </c>
-      <c r="AB19">
-        <v>4</v>
-      </c>
-      <c r="AC19">
-        <v>4</v>
-      </c>
-      <c r="AD19">
-        <v>4</v>
-      </c>
-      <c r="AE19">
-        <v>4</v>
-      </c>
-      <c r="AF19">
-        <v>4</v>
-      </c>
-      <c r="AG19">
-        <v>4</v>
-      </c>
-      <c r="AH19">
-        <v>4</v>
-      </c>
-      <c r="AI19">
-        <v>4</v>
-      </c>
-      <c r="AJ19">
-        <v>3</v>
-      </c>
-      <c r="AK19">
-        <v>4</v>
-      </c>
-      <c r="AL19">
-        <v>4</v>
-      </c>
-      <c r="AM19">
-        <v>4</v>
-      </c>
-      <c r="AN19">
-        <v>4</v>
-      </c>
-      <c r="AO19">
-        <v>4</v>
-      </c>
-      <c r="AP19">
-        <v>4</v>
-      </c>
-      <c r="AQ19">
-        <v>4</v>
-      </c>
-      <c r="AR19">
-        <v>3</v>
-      </c>
-      <c r="AS19">
-        <v>4</v>
-      </c>
-      <c r="AT19">
-        <v>4</v>
-      </c>
-      <c r="AU19">
-        <v>4</v>
-      </c>
-      <c r="AV19">
-        <v>4</v>
-      </c>
-      <c r="AW19">
-        <v>3</v>
-      </c>
-      <c r="AX19">
-        <v>4</v>
-      </c>
-      <c r="AY19">
-        <v>4</v>
-      </c>
-      <c r="AZ19">
-        <v>4</v>
-      </c>
-      <c r="BA19">
-        <v>3</v>
-      </c>
-      <c r="BB19">
-        <v>4</v>
-      </c>
-      <c r="BC19">
-        <v>4</v>
-      </c>
-      <c r="BD19">
-        <v>3</v>
-      </c>
       <c r="CX19" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:102" x14ac:dyDescent="0.25">
@@ -3735,99 +2565,9 @@
       <c r="Z20">
         <v>4</v>
       </c>
-      <c r="AA20">
-        <v>4</v>
-      </c>
-      <c r="AB20">
-        <v>4</v>
-      </c>
-      <c r="AC20">
-        <v>3</v>
-      </c>
-      <c r="AD20">
-        <v>2</v>
-      </c>
-      <c r="AE20">
-        <v>4</v>
-      </c>
-      <c r="AF20">
-        <v>4</v>
-      </c>
-      <c r="AG20">
-        <v>4</v>
-      </c>
-      <c r="AH20">
-        <v>4</v>
-      </c>
-      <c r="AI20">
-        <v>4</v>
-      </c>
-      <c r="AJ20">
-        <v>3</v>
-      </c>
-      <c r="AK20">
-        <v>4</v>
-      </c>
-      <c r="AL20">
-        <v>4</v>
-      </c>
-      <c r="AM20">
-        <v>4</v>
-      </c>
-      <c r="AN20">
-        <v>4</v>
-      </c>
-      <c r="AO20">
-        <v>3</v>
-      </c>
-      <c r="AP20">
-        <v>4</v>
-      </c>
-      <c r="AQ20">
-        <v>3</v>
-      </c>
-      <c r="AR20">
-        <v>4</v>
-      </c>
-      <c r="AS20">
-        <v>4</v>
-      </c>
-      <c r="AT20">
-        <v>4</v>
-      </c>
-      <c r="AU20">
-        <v>4</v>
-      </c>
-      <c r="AV20">
-        <v>4</v>
-      </c>
-      <c r="AW20">
-        <v>3</v>
-      </c>
-      <c r="AX20">
-        <v>4</v>
-      </c>
-      <c r="AY20">
-        <v>3</v>
-      </c>
-      <c r="AZ20">
-        <v>4</v>
-      </c>
-      <c r="BA20">
-        <v>3</v>
-      </c>
-      <c r="BB20">
-        <v>3</v>
-      </c>
-      <c r="BC20">
-        <v>3</v>
-      </c>
-      <c r="BD20">
-        <v>3</v>
-      </c>
       <c r="CX20" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:102" x14ac:dyDescent="0.25">
@@ -3909,99 +2649,9 @@
       <c r="Z21">
         <v>4</v>
       </c>
-      <c r="AA21">
-        <v>4</v>
-      </c>
-      <c r="AB21">
-        <v>4</v>
-      </c>
-      <c r="AC21">
-        <v>4</v>
-      </c>
-      <c r="AD21">
-        <v>2</v>
-      </c>
-      <c r="AE21">
-        <v>4</v>
-      </c>
-      <c r="AF21">
-        <v>4</v>
-      </c>
-      <c r="AG21">
-        <v>4</v>
-      </c>
-      <c r="AH21">
-        <v>4</v>
-      </c>
-      <c r="AI21">
-        <v>4</v>
-      </c>
-      <c r="AJ21">
-        <v>3</v>
-      </c>
-      <c r="AK21">
-        <v>4</v>
-      </c>
-      <c r="AL21">
-        <v>3</v>
-      </c>
-      <c r="AM21">
-        <v>4</v>
-      </c>
-      <c r="AN21">
-        <v>3</v>
-      </c>
-      <c r="AO21">
-        <v>3</v>
-      </c>
-      <c r="AP21">
-        <v>4</v>
-      </c>
-      <c r="AQ21">
-        <v>2</v>
-      </c>
-      <c r="AR21">
-        <v>4</v>
-      </c>
-      <c r="AS21">
-        <v>3</v>
-      </c>
-      <c r="AT21">
-        <v>4</v>
-      </c>
-      <c r="AU21">
-        <v>4</v>
-      </c>
-      <c r="AV21">
-        <v>4</v>
-      </c>
-      <c r="AW21">
-        <v>3</v>
-      </c>
-      <c r="AX21">
-        <v>4</v>
-      </c>
-      <c r="AY21">
-        <v>3</v>
-      </c>
-      <c r="AZ21">
-        <v>4</v>
-      </c>
-      <c r="BA21">
-        <v>3</v>
-      </c>
-      <c r="BB21">
-        <v>4</v>
-      </c>
-      <c r="BC21">
-        <v>3</v>
-      </c>
-      <c r="BD21">
-        <v>4</v>
-      </c>
       <c r="CX21" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:102" x14ac:dyDescent="0.25">
@@ -4189,99 +2839,9 @@
       <c r="Z23">
         <v>4</v>
       </c>
-      <c r="AA23">
-        <v>4</v>
-      </c>
-      <c r="AB23">
-        <v>4</v>
-      </c>
-      <c r="AC23">
-        <v>4</v>
-      </c>
-      <c r="AD23">
-        <v>3</v>
-      </c>
-      <c r="AE23">
-        <v>4</v>
-      </c>
-      <c r="AF23">
-        <v>4</v>
-      </c>
-      <c r="AG23">
-        <v>4</v>
-      </c>
-      <c r="AH23">
-        <v>4</v>
-      </c>
-      <c r="AI23">
-        <v>4</v>
-      </c>
-      <c r="AJ23">
-        <v>4</v>
-      </c>
-      <c r="AK23">
-        <v>4</v>
-      </c>
-      <c r="AL23">
-        <v>4</v>
-      </c>
-      <c r="AM23">
-        <v>4</v>
-      </c>
-      <c r="AN23">
-        <v>4</v>
-      </c>
-      <c r="AO23">
-        <v>3</v>
-      </c>
-      <c r="AP23">
-        <v>4</v>
-      </c>
-      <c r="AQ23">
-        <v>3</v>
-      </c>
-      <c r="AR23">
-        <v>4</v>
-      </c>
-      <c r="AS23">
-        <v>4</v>
-      </c>
-      <c r="AT23">
-        <v>4</v>
-      </c>
-      <c r="AU23">
-        <v>4</v>
-      </c>
-      <c r="AV23">
-        <v>4</v>
-      </c>
-      <c r="AW23">
-        <v>4</v>
-      </c>
-      <c r="AX23">
-        <v>4</v>
-      </c>
-      <c r="AY23">
-        <v>3</v>
-      </c>
-      <c r="AZ23">
-        <v>4</v>
-      </c>
-      <c r="BA23">
-        <v>3</v>
-      </c>
-      <c r="BB23">
-        <v>3</v>
-      </c>
-      <c r="BC23">
-        <v>3</v>
-      </c>
-      <c r="BD23">
-        <v>4</v>
-      </c>
       <c r="CX23" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:102" x14ac:dyDescent="0.25">
@@ -4363,99 +2923,9 @@
       <c r="Z24">
         <v>4</v>
       </c>
-      <c r="AA24">
-        <v>4</v>
-      </c>
-      <c r="AB24">
-        <v>4</v>
-      </c>
-      <c r="AC24">
-        <v>4</v>
-      </c>
-      <c r="AD24">
-        <v>4</v>
-      </c>
-      <c r="AE24">
-        <v>4</v>
-      </c>
-      <c r="AF24">
-        <v>4</v>
-      </c>
-      <c r="AG24">
-        <v>4</v>
-      </c>
-      <c r="AH24">
-        <v>4</v>
-      </c>
-      <c r="AI24">
-        <v>4</v>
-      </c>
-      <c r="AJ24">
-        <v>3</v>
-      </c>
-      <c r="AK24">
-        <v>4</v>
-      </c>
-      <c r="AL24">
-        <v>4</v>
-      </c>
-      <c r="AM24">
-        <v>4</v>
-      </c>
-      <c r="AN24">
-        <v>4</v>
-      </c>
-      <c r="AO24">
-        <v>3</v>
-      </c>
-      <c r="AP24">
-        <v>4</v>
-      </c>
-      <c r="AQ24">
-        <v>4</v>
-      </c>
-      <c r="AR24">
-        <v>3</v>
-      </c>
-      <c r="AS24">
-        <v>4</v>
-      </c>
-      <c r="AT24">
-        <v>4</v>
-      </c>
-      <c r="AU24">
-        <v>4</v>
-      </c>
-      <c r="AV24">
-        <v>4</v>
-      </c>
-      <c r="AW24">
-        <v>3</v>
-      </c>
-      <c r="AX24">
-        <v>4</v>
-      </c>
-      <c r="AY24">
-        <v>4</v>
-      </c>
-      <c r="AZ24">
-        <v>4</v>
-      </c>
-      <c r="BA24">
-        <v>3</v>
-      </c>
-      <c r="BB24">
-        <v>4</v>
-      </c>
-      <c r="BC24">
-        <v>4</v>
-      </c>
-      <c r="BD24">
-        <v>4</v>
-      </c>
       <c r="CX24" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:102" x14ac:dyDescent="0.25">
@@ -4537,99 +3007,9 @@
       <c r="Z25">
         <v>4</v>
       </c>
-      <c r="AA25">
-        <v>4</v>
-      </c>
-      <c r="AB25">
-        <v>4</v>
-      </c>
-      <c r="AC25">
-        <v>3</v>
-      </c>
-      <c r="AD25">
-        <v>3</v>
-      </c>
-      <c r="AE25">
-        <v>4</v>
-      </c>
-      <c r="AF25">
-        <v>4</v>
-      </c>
-      <c r="AG25">
-        <v>4</v>
-      </c>
-      <c r="AH25">
-        <v>4</v>
-      </c>
-      <c r="AI25">
-        <v>4</v>
-      </c>
-      <c r="AJ25">
-        <v>4</v>
-      </c>
-      <c r="AK25">
-        <v>4</v>
-      </c>
-      <c r="AL25">
-        <v>4</v>
-      </c>
-      <c r="AM25">
-        <v>4</v>
-      </c>
-      <c r="AN25">
-        <v>4</v>
-      </c>
-      <c r="AO25">
-        <v>4</v>
-      </c>
-      <c r="AP25">
-        <v>4</v>
-      </c>
-      <c r="AQ25">
-        <v>3</v>
-      </c>
-      <c r="AR25">
-        <v>4</v>
-      </c>
-      <c r="AS25">
-        <v>4</v>
-      </c>
-      <c r="AT25">
-        <v>4</v>
-      </c>
-      <c r="AU25">
-        <v>4</v>
-      </c>
-      <c r="AV25">
-        <v>4</v>
-      </c>
-      <c r="AW25">
-        <v>4</v>
-      </c>
-      <c r="AX25">
-        <v>4</v>
-      </c>
-      <c r="AY25">
-        <v>3</v>
-      </c>
-      <c r="AZ25">
-        <v>4</v>
-      </c>
-      <c r="BA25">
-        <v>3</v>
-      </c>
-      <c r="BB25">
-        <v>4</v>
-      </c>
-      <c r="BC25">
-        <v>4</v>
-      </c>
-      <c r="BD25">
-        <v>4</v>
-      </c>
       <c r="CX25" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:102" x14ac:dyDescent="0.25">
@@ -4649,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F1837-D004-4091-AE06-6138F7EE6C9D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4699,7 +3079,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="11">
         <f>AVERAGE(H3:H6)</f>
-        <v>3.8000000000000003</v>
+        <v>3.8999999999999995</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>IF(H2&gt;=3.26,"Acceptable",IF(H2&gt;=2.51,"Slightly Acceptable",IF(H2&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
@@ -4716,11 +3096,11 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Functionality1,4)</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <f>COUNTIF(Functionality1,3)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>COUNTIF(Functionality1,2)</f>
@@ -4732,14 +3112,14 @@
       </c>
       <c r="G3">
         <f>SUM(C3:F3)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <f>(B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1)/G3</f>
-        <v>3.9090909090909092</v>
+        <v>4</v>
       </c>
       <c r="I3" s="12" t="str">
-        <f t="shared" ref="I3:I31" si="0">IF(H3&gt;=3.26,"Acceptable",IF(H3&gt;=2.51,"Slightly Acceptable",IF(H3&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
+        <f t="shared" ref="I3:I30" si="0">IF(H3&gt;=3.26,"Acceptable",IF(H3&gt;=2.51,"Slightly Acceptable",IF(H3&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
         <v>Acceptable</v>
       </c>
     </row>
@@ -4753,11 +3133,11 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Functionality2,4)</f>
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Functionality2,3)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f>COUNTIF(Functionality2,2)</f>
@@ -4769,11 +3149,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G6" si="1">SUM(C4:F4)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <f>(B4*$B$1+C4*$C$1+D4*$D$1+E4*$E$1+F4*$F$1)/G4</f>
-        <v>3.7818181818181817</v>
+        <v>3.88</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4790,15 +3170,15 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Functionality3,4)</f>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Functionality3,3)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f>COUNTIF(Functionality3,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f>COUNTIF(Functionality3,1)</f>
@@ -4806,11 +3186,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <f>(B5*$B$1+C5*$C$1+D5*$D$1+E5*$E$1+F5*$F$1)/G5</f>
-        <v>3.7454545454545456</v>
+        <v>3.84</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4827,15 +3207,15 @@
       </c>
       <c r="C6">
         <f>COUNTIF(Functionality4,4)</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <f>COUNTIF(Functionality4,3)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f>COUNTIF(Functionality4,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>COUNTIF(Functionality4,1)</f>
@@ -4843,11 +3223,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <f>(B6*$B$1+C6*$C$1+D6*$D$1+E6*$E$1+F6*$F$1)/G6</f>
-        <v>3.7636363636363637</v>
+        <v>3.88</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4870,7 +3250,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="11">
         <f>AVERAGE(H9:H11)</f>
-        <v>3.684848484848485</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4887,15 +3267,15 @@
       </c>
       <c r="C9">
         <f>COUNTIF(Reliability1,4)</f>
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <f>COUNTIF(Reliability1,3)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <f>COUNTIF(Reliability1,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>COUNTIF(Reliability1,1)</f>
@@ -4903,11 +3283,11 @@
       </c>
       <c r="G9">
         <f>SUM(C9:F9)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <f>(B9*$B$1+C9*$C$1+D9*$D$1+E9*$E$1+F9*$F$1)/G9</f>
-        <v>3.5636363636363635</v>
+        <v>3.56</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4924,11 +3304,11 @@
       </c>
       <c r="C10">
         <f>COUNTIF(Reliability2,4)</f>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <f>COUNTIF(Reliability2,3)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <f>COUNTIF(Reliability2,2)</f>
@@ -4940,11 +3320,11 @@
       </c>
       <c r="G10">
         <f>SUM(B10:F10)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <f>(B10*$B$1+C10*$C$1+D10*$D$1+E10*$E$1+F10*$F$1)/G10</f>
-        <v>3.7272727272727271</v>
+        <v>3.88</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4961,11 +3341,11 @@
       </c>
       <c r="C11">
         <f>COUNTIF(Reliability3,4)</f>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <f>COUNTIF(Reliability3,3)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <f>COUNTIF(Reliability3,2)</f>
@@ -4977,11 +3357,11 @@
       </c>
       <c r="G11">
         <f>SUM(B11:F11)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H11">
         <f>(B11*$B$1+C11*$C$1+D11*$D$1+E11*$E$1+F11*$F$1)/G11</f>
-        <v>3.7636363636363637</v>
+        <v>3.76</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5004,7 +3384,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="11">
         <f>AVERAGE(H14:H16)</f>
-        <v>3.8242424242424242</v>
+        <v>3.8266666666666667</v>
       </c>
       <c r="I13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5021,11 +3401,11 @@
       </c>
       <c r="C14">
         <f>COUNTIF(Usability1,4)</f>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <f>COUNTIF(Usability1,3)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f>COUNTIF(Usability1,2)</f>
@@ -5037,11 +3417,11 @@
       </c>
       <c r="G14">
         <f>SUM(C14:F14)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <f>(B14*$B$1+C14*$C$1+D14*$D$1+E14*$E$1+F14*$F$1)/G14</f>
-        <v>3.8727272727272726</v>
+        <v>3.88</v>
       </c>
       <c r="I14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5058,11 +3438,11 @@
       </c>
       <c r="C15">
         <f>COUNTIF(Usability2,4)</f>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <f>COUNTIF(Usability2,3)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <f>COUNTIF(Usability2,2)</f>
@@ -5074,11 +3454,11 @@
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G16" si="2">SUM(C15:F15)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H15">
         <f>(B15*$B$1+C15*$C$1+D15*$D$1+E15*$E$1+F15*$F$1)/G15</f>
-        <v>3.7636363636363637</v>
+        <v>3.8</v>
       </c>
       <c r="I15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5095,11 +3475,11 @@
       </c>
       <c r="C16">
         <f>COUNTIF(Usability3,4)</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <f>COUNTIF(Usability3,3)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <f>COUNTIF(Usability3,2)</f>
@@ -5111,11 +3491,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <f>(B16*$B$1+C16*$C$1+D16*$D$1+E16*$E$1+F16*$F$1)/G16</f>
-        <v>3.8363636363636364</v>
+        <v>3.8</v>
       </c>
       <c r="I16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5138,7 +3518,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="11">
         <f>AVERAGE(H19:H20)</f>
-        <v>3.8363636363636364</v>
+        <v>3.9</v>
       </c>
       <c r="I18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5155,11 +3535,11 @@
       </c>
       <c r="C19">
         <f>COUNTIF(Efficiency1,4)</f>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <f>COUNTIF(Efficiency1,3)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <f>COUNTIF(Efficiency1,2)</f>
@@ -5171,11 +3551,11 @@
       </c>
       <c r="G19">
         <f>SUM(C19:F19)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <f>(B19*$B$1+C19*$C$1+D19*$D$1+E19*$E$1+F19*$F$1)/G19</f>
-        <v>3.8545454545454545</v>
+        <v>3.92</v>
       </c>
       <c r="I19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5192,11 +3572,11 @@
       </c>
       <c r="C20">
         <f>COUNTIF(Efficiency2,4)</f>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <f>COUNTIF(Efficiency2,3)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <f>COUNTIF(Efficiency2,2)</f>
@@ -5208,11 +3588,11 @@
       </c>
       <c r="G20">
         <f>SUM(C20:F20)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H20">
         <f>(B20*$B$1+C20*$C$1+D20*$D$1+E20*$E$1+F20*$F$1)/G20</f>
-        <v>3.8181818181818183</v>
+        <v>3.88</v>
       </c>
       <c r="I20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5235,7 +3615,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="11">
         <f>AVERAGE(H23:H25)</f>
-        <v>3.7333333333333329</v>
+        <v>3.8133333333333339</v>
       </c>
       <c r="I22" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5252,11 +3632,11 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Maintainability1,4)</f>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <f>COUNTIF(Maintainability1,3)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <f>COUNTIF(Maintainability1,2)</f>
@@ -5268,11 +3648,11 @@
       </c>
       <c r="G23">
         <f>SUM(C23:F23)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H23">
         <f>(B23*$B$1+C23*$C$1+D23*$D$1+E23*$E$1+F23*$F$1)/G23</f>
-        <v>3.7818181818181817</v>
+        <v>3.72</v>
       </c>
       <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5289,15 +3669,15 @@
       </c>
       <c r="C24">
         <f>COUNTIF(Maintainability2,4)</f>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <f>COUNTIF(Maintainability2,3)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <f>COUNTIF(Maintainability2,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f>COUNTIF(Maintainability2,1)</f>
@@ -5305,11 +3685,11 @@
       </c>
       <c r="G24">
         <f t="shared" ref="G24:G25" si="3">SUM(C24:F24)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <f>(B24*$B$1+C24*$C$1+D24*$D$1+E24*$E$1+F24*$F$1)/G24</f>
-        <v>3.7454545454545456</v>
+        <v>3.92</v>
       </c>
       <c r="I24" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5326,15 +3706,15 @@
       </c>
       <c r="C25">
         <f>COUNTIF(Maintainability3,4)</f>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <f>COUNTIF(Maintainability3,3)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <f>COUNTIF(Maintainability3,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>COUNTIF(Maintainability3,1)</f>
@@ -5342,11 +3722,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H25">
         <f>(B25*$B$1+C25*$C$1+D25*$D$1+E25*$E$1+F25*$F$1)/G25</f>
-        <v>3.6727272727272728</v>
+        <v>3.8</v>
       </c>
       <c r="I25" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5369,7 +3749,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="11">
         <f>AVERAGE(H28:H31)</f>
-        <v>3.8242424242424242</v>
+        <v>3.84</v>
       </c>
       <c r="I27" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5386,11 +3766,11 @@
       </c>
       <c r="C28">
         <f>COUNTIF(Portability1,4)</f>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <f>COUNTIF(Portability1,3)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <f>COUNTIF(Portability1,2)</f>
@@ -5402,11 +3782,11 @@
       </c>
       <c r="G28">
         <f>SUM(C28:F28)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H28">
         <f>(B28*$B$1+C28*$C$1+D28*$D$1+E28*$E$1+F28*$F$1)/G28</f>
-        <v>3.7454545454545456</v>
+        <v>3.72</v>
       </c>
       <c r="I28" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5423,11 +3803,11 @@
       </c>
       <c r="C29">
         <f>COUNTIF(Portability2,4)</f>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <f>COUNTIF(Portability2,3)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <f>COUNTIF(Portability2,2)</f>
@@ -5438,12 +3818,12 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G31" si="4">SUM(C29:F29)</f>
-        <v>55</v>
+        <f t="shared" ref="G29:G30" si="4">SUM(C29:F29)</f>
+        <v>25</v>
       </c>
       <c r="H29">
         <f>(B29*$B$1+C29*$C$1+D29*$D$1+E29*$E$1+F29*$F$1)/G29</f>
-        <v>3.8727272727272726</v>
+        <v>3.92</v>
       </c>
       <c r="I29" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5460,11 +3840,11 @@
       </c>
       <c r="C30">
         <f>COUNTIF(Portability3,4)</f>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <f>COUNTIF(Portability3,3)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <f>COUNTIF(Portability3,2)</f>
@@ -5476,11 +3856,11 @@
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <f>(B30*$B$1+C30*$C$1+D30*$D$1+E30*$E$1+F30*$F$1)/G30</f>
-        <v>3.8545454545454545</v>
+        <v>3.88</v>
       </c>
       <c r="I30" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5500,7 +3880,7 @@
       </c>
       <c r="H33" s="11">
         <f>AVERAGE(H27,H22,H18,H13,H8,H2)</f>
-        <v>3.783838383838384</v>
+        <v>3.8355555555555552</v>
       </c>
       <c r="I33" s="12" t="str">
         <f>IF(H33&gt;=3.26,"Acceptable",IF(H33&gt;=2.51,"Slightly Acceptable",IF(H33&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
